--- a/p4 productbacklog.xlsx
+++ b/p4 productbacklog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t xml:space="preserve">As an user I want to controle the character so that I can play </t>
+  </si>
+  <si>
+    <t>2.5h</t>
+  </si>
+  <si>
+    <t>2.6h</t>
+  </si>
+  <si>
+    <t>5h</t>
   </si>
 </sst>
 </file>
@@ -293,8 +302,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -918,7 +955,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +1005,9 @@
       <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
@@ -986,7 +1025,9 @@
       <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1045,9 @@
       <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>35</v>
       </c>
@@ -1022,7 +1065,9 @@
       <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1085,9 @@
       <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>33</v>
       </c>
@@ -1058,7 +1105,9 @@
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
